--- a/Indicator_HDI.xlsx
+++ b/Indicator_HDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F0A72-4041-48A6-97BF-610D5B07F9DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43353796-0CD5-4769-BCA2-580BE1546A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Country</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>HDI_2005</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -830,8 +833,8 @@
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8">
-        <v>2005</v>
+      <c r="B1" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -846,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="8">
-        <v>0.76500000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -861,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="8">
-        <v>0.64900000000000002</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -876,7 +879,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="8">
-        <v>0.69199999999999995</v>
+        <v>69.2</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -891,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="8">
-        <v>0.77900000000000003</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -906,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="8">
-        <v>0.67500000000000004</v>
+        <v>67.5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -921,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="8">
-        <v>0.69499999999999995</v>
+        <v>69.5</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -936,7 +939,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="8">
-        <v>0.63500000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -951,7 +954,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="8">
-        <v>0.69099999999999995</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -966,7 +969,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="8">
-        <v>0.748</v>
+        <v>74.8</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -981,7 +984,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="8">
-        <v>0.69199999999999995</v>
+        <v>69.2</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -996,7 +999,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="31">
-        <v>0.60599999999999998</v>
+        <v>60.6</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -1011,7 +1014,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="32">
-        <v>0.65900000000000003</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
